--- a/biology/Botanique/Enterprise_(pomme)/Enterprise_(pomme).xlsx
+++ b/biology/Botanique/Enterprise_(pomme)/Enterprise_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enterprise est le nom d'un cultivar de pommier domestique.
 Nom d'étude: Co-op 30
@@ -513,7 +525,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaboration d'universités américaines.
 Première plantation de référence: 1982
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usage: pomme à couteau ou à cuire
 Calibre: moyen
@@ -578,9 +594,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pédigree: complexe F2 de McIntosh résistantes: PRI 1661-2 x PRI 1661-1[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pédigree: complexe F2 de McIntosh résistantes: PRI 1661-2 x PRI 1661-1.</t>
         </is>
       </c>
     </row>
@@ -608,7 +626,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété diploïde
 Groupe de floraison: C</t>
@@ -639,7 +659,9 @@
           <t>Susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tavelure: immunisé
 Feu bactérien: très résistant
@@ -672,7 +694,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le peu de susceptibilité aux maladies de ce cultivar est une qualité appréciable pour les jardins familiaux où les traitements ne sont pas systématiques.
 Cueillette: très tardive</t>
